--- a/collage/data Analysis/labset1.xlsx
+++ b/collage/data Analysis/labset1.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\projects\programming\collage\data Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>NAME</t>
   </si>
@@ -203,40 +207,13 @@
   </si>
   <si>
     <t>`</t>
-  </si>
-  <si>
-    <t>Lona</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>Orders</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,14 +237,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,59 +259,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -403,91 +331,14 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -536,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1484,24 +1335,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H20">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>50000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>25000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>50000</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>74000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>50000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>50000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1535,215 +1386,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>65000</v>
-      </c>
-      <c r="E2" t="str">
-        <f>INDEX(A2:D11,2,2)</f>
-        <v>West</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>63000</v>
-      </c>
-      <c r="E3" t="str">
-        <f>INDEX(A3:D12,2,2)</f>
-        <v>South</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>61000</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E3:E11" si="0">INDEX(A4:D13,2,2)</f>
-        <v>North</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5">
-        <v>89</v>
-      </c>
-      <c r="D5">
-        <v>56000</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>East</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>54000</v>
-      </c>
-      <c r="E6" t="str">
-        <f>INDEX(A6:D15,2,2)</f>
-        <v>North</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7">
-        <v>125</v>
-      </c>
-      <c r="D7">
-        <v>43000</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>East</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>140</v>
-      </c>
-      <c r="D8">
-        <v>40000</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>East</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9">
-        <v>150</v>
-      </c>
-      <c r="D9">
-        <v>35000</v>
-      </c>
-      <c r="E9" t="str">
-        <f>INDEX(A9:D18,2,2)</f>
-        <v>South</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10">
-        <v>178</v>
-      </c>
-      <c r="D10">
-        <v>32000</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>East</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11">
-        <v>190</v>
-      </c>
-      <c r="D11">
-        <v>31000</v>
-      </c>
-      <c r="E11">
-        <f>INDEX(A11:D20,2,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1758,16 +1406,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/collage/data Analysis/labset1.xlsx
+++ b/collage/data Analysis/labset1.xlsx
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f>SUMIF(D$2:D$22,H$2:H$8,E$2:E$22)</f>
         <v>184000</v>
       </c>
       <c r="K5" t="str">
